--- a/出纳帐.xlsx
+++ b/出纳帐.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="232">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1085,6 +1085,14 @@
   </si>
   <si>
     <t>牛轧糖快递费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单采购（精瘦肉，老蒜薹，毛豆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃子酱运费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2435,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3868,8 +3876,41 @@
       <c r="H92" s="46"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" s="45" customFormat="1">
+      <c r="A93" s="18">
+        <v>42167</v>
+      </c>
+      <c r="B93" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" s="20">
+        <v>-15.5</v>
+      </c>
+      <c r="D93" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93" s="4"/>
       <c r="F93" s="48"/>
+      <c r="H93" s="46"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" s="45" customFormat="1">
+      <c r="A94" s="18">
+        <v>42169</v>
+      </c>
+      <c r="B94" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" s="20">
+        <v>-14</v>
+      </c>
+      <c r="D94" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="48"/>
+      <c r="H94" s="46"/>
+      <c r="J94" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6742,7 +6783,7 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="21">
         <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A8)*(现金账!C3:C10014))</f>
-        <v>-161.10000000000002</v>
+        <v>-190.60000000000002</v>
       </c>
       <c r="R8" s="21">
         <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A8)*(现金账!H3:H10014))</f>

--- a/出纳帐.xlsx
+++ b/出纳帐.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="233">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1093,6 +1093,10 @@
   </si>
   <si>
     <t>桃子酱运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单采购（排骨）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2443,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3911,6 +3915,24 @@
       <c r="F94" s="48"/>
       <c r="H94" s="46"/>
       <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" s="45" customFormat="1">
+      <c r="A95" s="18">
+        <v>42170</v>
+      </c>
+      <c r="B95" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="20">
+        <v>-23.5</v>
+      </c>
+      <c r="D95" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="48"/>
+      <c r="H95" s="46"/>
+      <c r="J95" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6783,7 +6805,7 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="21">
         <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A8)*(现金账!C3:C10014))</f>
-        <v>-190.60000000000002</v>
+        <v>-214.10000000000002</v>
       </c>
       <c r="R8" s="21">
         <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A8)*(现金账!H3:H10014))</f>

--- a/出纳帐.xlsx
+++ b/出纳帐.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="235">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1097,6 +1097,14 @@
   </si>
   <si>
     <t>订单采购（排骨）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单采购（精瘦肉，五花肉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单采购（土豆）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2447,10 +2455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3933,6 +3941,42 @@
       <c r="F95" s="48"/>
       <c r="H95" s="46"/>
       <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" s="45" customFormat="1">
+      <c r="A96" s="18">
+        <v>42172</v>
+      </c>
+      <c r="B96" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C96" s="20">
+        <v>-21</v>
+      </c>
+      <c r="D96" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="48"/>
+      <c r="H96" s="46"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" s="45" customFormat="1">
+      <c r="A97" s="18">
+        <v>42172</v>
+      </c>
+      <c r="B97" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="20">
+        <v>-3.5</v>
+      </c>
+      <c r="D97" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="48"/>
+      <c r="H97" s="46"/>
+      <c r="J97" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6805,7 +6849,7 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="21">
         <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A8)*(现金账!C3:C10014))</f>
-        <v>-214.10000000000002</v>
+        <v>-238.60000000000002</v>
       </c>
       <c r="R8" s="21">
         <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A8)*(现金账!H3:H10014))</f>

--- a/出纳帐.xlsx
+++ b/出纳帐.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="243">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1105,6 +1105,38 @@
   </si>
   <si>
     <t>订单采购（土豆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单采购（胖哥6.10-6.18）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃子酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃子酱收入转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘立杨支付宝（到曾万清）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃子酱快递费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户支付宝支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单采购（五花肉，苋菜）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2455,10 +2487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2855,6 +2887,16 @@
       <c r="C18" s="20">
         <v>-4.2</v>
       </c>
+      <c r="F18" s="48">
+        <v>42169</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="20">
+        <v>60</v>
+      </c>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="17">
@@ -3977,6 +4019,78 @@
       <c r="F97" s="48"/>
       <c r="H97" s="46"/>
       <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" s="45" customFormat="1">
+      <c r="A98" s="18">
+        <v>42178</v>
+      </c>
+      <c r="B98" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="C98" s="20">
+        <v>-9.5</v>
+      </c>
+      <c r="D98" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="48"/>
+      <c r="H98" s="46"/>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" s="45" customFormat="1">
+      <c r="A99" s="18">
+        <v>42178</v>
+      </c>
+      <c r="B99" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" s="20">
+        <v>-7</v>
+      </c>
+      <c r="D99" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="48"/>
+      <c r="H99" s="46"/>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10" s="45" customFormat="1">
+      <c r="A100" s="18">
+        <v>42179</v>
+      </c>
+      <c r="B100" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C100" s="20">
+        <v>-7</v>
+      </c>
+      <c r="D100" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="48"/>
+      <c r="H100" s="46"/>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" s="45" customFormat="1">
+      <c r="A101" s="18">
+        <v>42179</v>
+      </c>
+      <c r="B101" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="20">
+        <v>-20</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="48"/>
+      <c r="H101" s="46"/>
+      <c r="J101" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3991,10 +4105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:XFD94"/>
+    <sheetView topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:XFD115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5116,6 +5230,18 @@
         <v>146</v>
       </c>
       <c r="F40" s="4"/>
+      <c r="G40" s="48">
+        <v>42174</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="I40" s="36">
+        <v>17.98</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>241</v>
+      </c>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11">
@@ -6228,6 +6354,63 @@
       <c r="F111" s="4"/>
       <c r="I111" s="46"/>
       <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:11" s="45" customFormat="1">
+      <c r="A112" s="48">
+        <v>42173</v>
+      </c>
+      <c r="B112" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="26">
+        <v>-133.19999999999999</v>
+      </c>
+      <c r="D112" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F112" s="4"/>
+      <c r="I112" s="46"/>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" s="45" customFormat="1">
+      <c r="A113" s="48">
+        <v>42173</v>
+      </c>
+      <c r="B113" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" s="26">
+        <v>-300</v>
+      </c>
+      <c r="D113" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F113" s="4"/>
+      <c r="I113" s="46"/>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="1:11" s="45" customFormat="1">
+      <c r="A114" s="48">
+        <v>42173</v>
+      </c>
+      <c r="B114" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="26">
+        <v>-7</v>
+      </c>
+      <c r="D114" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="I114" s="46"/>
+      <c r="K114" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6396,11 +6579,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A3)*(银行账!D3:D10050="华夏")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A3)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
         <v>-624.5</v>
       </c>
       <c r="C3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A3)*(银行账!J3:J10050="华夏")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A3)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
         <v>8867</v>
       </c>
       <c r="D3" s="21">
@@ -6408,11 +6591,11 @@
         <v>22483.129999999997</v>
       </c>
       <c r="E3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A3)*(银行账!D3:D10050="招商")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A3)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
         <v>-3</v>
       </c>
       <c r="F3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A3)*(银行账!J3:J10050="招商")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A3)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
         <v>9117</v>
       </c>
       <c r="G3" s="21">
@@ -6420,11 +6603,11 @@
         <v>9142.1299999999992</v>
       </c>
       <c r="H3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A3)*(银行账!D3:D10050=H1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A3)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="I3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A3)*(银行账!J3:J10050=H1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A3)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="J3" s="21">
@@ -6432,11 +6615,11 @@
         <v>0</v>
       </c>
       <c r="K3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A3)*(银行账!D3:D10050=K1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A3)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="L3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A3)*(银行账!J3:J10050=K1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A3)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="M3" s="21">
@@ -6444,11 +6627,11 @@
         <v>0</v>
       </c>
       <c r="N3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A3)*(银行账!D3:D10050=N1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A3)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="O3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A3)*(银行账!J3:J10050=N1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A3)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="P3" s="21">
@@ -6478,11 +6661,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A4)*(银行账!D3:D10050="华夏")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A4)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
         <v>-474.6</v>
       </c>
       <c r="C4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A4)*(银行账!J3:J10050="华夏")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A4)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="D4" s="21">
@@ -6490,11 +6673,11 @@
         <v>22008.53</v>
       </c>
       <c r="E4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A4)*(银行账!D3:D10050="招商")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A4)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="F4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A4)*(银行账!J3:J10050="招商")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A4)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
         <v>2261.1</v>
       </c>
       <c r="G4" s="21">
@@ -6502,33 +6685,33 @@
         <v>11403.23</v>
       </c>
       <c r="H4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A4)*(银行账!D3:D10050=H1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A4)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="I4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A4)*(银行账!J3:J10050=H1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A4)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="J4" s="21">
         <v>0</v>
       </c>
       <c r="K4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A4)*(银行账!D3:D10050=K1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A4)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="L4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A4)*(银行账!J3:J10050=K1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A4)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="M4" s="21">
         <v>181.14</v>
       </c>
       <c r="N4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A4)*(银行账!D3:D10050=N1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A4)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="O4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A4)*(银行账!J3:J10050=N1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A4)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="P4" s="21">
@@ -6557,11 +6740,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A5)*(银行账!D3:D10050=B1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A5)*(银行账!D3:D10049=B1)*(银行账!C3:C10049))</f>
         <v>-16761.550000000003</v>
       </c>
       <c r="C5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A5)*(银行账!J3:J10050="华夏")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A5)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
         <v>15.26</v>
       </c>
       <c r="D5" s="21">
@@ -6569,11 +6752,11 @@
         <v>5262.2399999999943</v>
       </c>
       <c r="E5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A5)*(银行账!D3:D10050="招商")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A5)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
         <v>-23780.999999999996</v>
       </c>
       <c r="F5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A5)*(银行账!J3:J10050="招商")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A5)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
         <v>15263.76</v>
       </c>
       <c r="G5" s="21">
@@ -6581,11 +6764,11 @@
         <v>2885.9900000000034</v>
       </c>
       <c r="H5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A5)*(银行账!D3:D10050=H1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A5)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
         <v>-190</v>
       </c>
       <c r="I5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A5)*(银行账!J3:J10050=H1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A5)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
         <v>687</v>
       </c>
       <c r="J5" s="21">
@@ -6593,11 +6776,11 @@
         <v>497</v>
       </c>
       <c r="K5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A5)*(银行账!D3:D10050=K1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A5)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
         <v>-756.66</v>
       </c>
       <c r="L5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A5)*(银行账!J3:J10050=K1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A5)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
         <v>1099.1099999999999</v>
       </c>
       <c r="M5" s="21">
@@ -6605,11 +6788,11 @@
         <v>523.58999999999992</v>
       </c>
       <c r="N5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A5)*(银行账!D3:D10050=N1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A5)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
         <v>-35</v>
       </c>
       <c r="O5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A5)*(银行账!J3:J10050=N1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A5)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
         <v>752.69</v>
       </c>
       <c r="P5" s="21">
@@ -6639,11 +6822,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A6)*(银行账!D3:D10050="华夏")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A6)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
         <v>-2536.4599999999996</v>
       </c>
       <c r="C6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A6)*(银行账!J3:J10050="华夏")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A6)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
         <v>268</v>
       </c>
       <c r="D6" s="21">
@@ -6651,11 +6834,11 @@
         <v>2993.7799999999947</v>
       </c>
       <c r="E6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A6)*(银行账!D3:D10050="招商")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A6)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
         <v>-4178.1000000000004</v>
       </c>
       <c r="F6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A6)*(银行账!J3:J10050="招商")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A6)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
         <v>2071</v>
       </c>
       <c r="G6" s="21">
@@ -6663,11 +6846,11 @@
         <v>778.89000000000306</v>
       </c>
       <c r="H6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A6)*(银行账!D3:D10050=H1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A6)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="I6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A6)*(银行账!J3:J10050=H1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A6)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="J6" s="21">
@@ -6675,11 +6858,11 @@
         <v>497</v>
       </c>
       <c r="K6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A6)*(银行账!D3:D10050=K1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A6)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
         <v>-3811.13</v>
       </c>
       <c r="L6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A6)*(银行账!J3:J10050=K1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A6)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
         <v>3513.07</v>
       </c>
       <c r="M6" s="21">
@@ -6687,11 +6870,11 @@
         <v>225.52999999999997</v>
       </c>
       <c r="N6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A6)*(银行账!D3:D10050=N1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A6)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
         <v>-30</v>
       </c>
       <c r="O6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A6)*(银行账!J3:J10050=N1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A6)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
         <v>3733.6800000000003</v>
       </c>
       <c r="P6" s="21">
@@ -6721,11 +6904,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A7)*(银行账!D3:D10050="华夏")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A7)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
         <v>-392.5</v>
       </c>
       <c r="C7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A7)*(银行账!J3:J10050="华夏")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A7)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="D7" s="21">
@@ -6733,11 +6916,11 @@
         <v>2601.2799999999947</v>
       </c>
       <c r="E7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A7)*(银行账!D3:D10050="招商")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A7)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
         <v>-1659.9</v>
       </c>
       <c r="F7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A7)*(银行账!J3:J10050="招商")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A7)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
         <v>6108.17</v>
       </c>
       <c r="G7" s="21">
@@ -6745,11 +6928,11 @@
         <v>5227.1600000000035</v>
       </c>
       <c r="H7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A7)*(银行账!D3:D10050=H1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A7)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="I7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A7)*(银行账!J3:J10050=H1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A7)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="J7" s="21">
@@ -6757,11 +6940,11 @@
         <v>497</v>
       </c>
       <c r="K7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A7)*(银行账!D3:D10050=K1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A7)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
         <v>-1943.82</v>
       </c>
       <c r="L7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A7)*(银行账!J3:J10050=K1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A7)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
         <v>2065.77</v>
       </c>
       <c r="M7" s="21">
@@ -6769,11 +6952,11 @@
         <v>347.48</v>
       </c>
       <c r="N7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A7)*(银行账!D3:D10050=N1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A7)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
         <v>-5035</v>
       </c>
       <c r="O7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A7)*(银行账!J3:J10050=N1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A7)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
         <v>1826.9299999999998</v>
       </c>
       <c r="P7" s="21">
@@ -6803,57 +6986,57 @@
         <v>6</v>
       </c>
       <c r="B8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A8)*(银行账!D3:D10050="华夏")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A8)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="C8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A8)*(银行账!J3:J10050="华夏")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A8)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A8)*(银行账!D3:D10050="招商")*(银行账!C3:C10050))</f>
-        <v>-625.9</v>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A8)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
+        <v>-1066.0999999999999</v>
       </c>
       <c r="F8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A8)*(银行账!J3:J10050="招商")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A8)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A8)*(银行账!D3:D10050=H1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A8)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="I8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A8)*(银行账!J3:J10050=H1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A8)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A8)*(银行账!D3:D10050=K1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A8)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="L8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A8)*(银行账!J3:J10050=K1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A8)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A8)*(银行账!D3:D10050=N1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A8)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="O8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A8)*(银行账!J3:J10050=N1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A8)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21">
         <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A8)*(现金账!C3:C10014))</f>
-        <v>-238.60000000000002</v>
+        <v>-282.10000000000002</v>
       </c>
       <c r="R8" s="21">
         <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A8)*(现金账!H3:H10014))</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S8" s="21"/>
       <c r="T8" s="39"/>
@@ -6867,47 +7050,47 @@
         <v>7</v>
       </c>
       <c r="B9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A9)*(银行账!D3:D10050="华夏")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A9)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="C9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A9)*(银行账!J3:J10050="华夏")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A9)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A9)*(银行账!D3:D10050="招商")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A9)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="F9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A9)*(银行账!J3:J10050="招商")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A9)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A9)*(银行账!D3:D10050=H1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A9)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="I9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A9)*(银行账!J3:J10050=H1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A9)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A9)*(银行账!D3:D10050=K1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A9)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="L9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A9)*(银行账!J3:J10050=K1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A9)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="M9" s="21"/>
       <c r="N9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A9)*(银行账!D3:D10050=N1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A9)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="O9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A9)*(银行账!J3:J10050=N1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A9)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="P9" s="21"/>
@@ -6931,47 +7114,47 @@
         <v>8</v>
       </c>
       <c r="B10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A10)*(银行账!D3:D10050="华夏")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A10)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="C10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A10)*(银行账!J3:J10050="华夏")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A10)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A10)*(银行账!D3:D10050="招商")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A10)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="F10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A10)*(银行账!J3:J10050="招商")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A10)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A10)*(银行账!D3:D10050=H1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A10)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="I10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A10)*(银行账!J3:J10050=H1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A10)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A10)*(银行账!D3:D10050=K1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A10)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="L10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A10)*(银行账!J3:J10050=K1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A10)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="M10" s="21"/>
       <c r="N10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A10)*(银行账!D3:D10050=N1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A10)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="O10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A10)*(银行账!J3:J10050=N1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A10)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="P10" s="21"/>
@@ -6995,47 +7178,47 @@
         <v>9</v>
       </c>
       <c r="B11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A11)*(银行账!D3:D10050="华夏")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A11)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="C11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A11)*(银行账!J3:J10050="华夏")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A11)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A11)*(银行账!D3:D10050="招商")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A11)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="F11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A11)*(银行账!J3:J10050="招商")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A11)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A11)*(银行账!D3:D10050=H1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A11)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="I11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A11)*(银行账!J3:J10050=H1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A11)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A11)*(银行账!D3:D10050=K1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A11)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="L11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A11)*(银行账!J3:J10050=K1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A11)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A11)*(银行账!D3:D10050=N1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A11)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="O11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A11)*(银行账!J3:J10050=N1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A11)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="P11" s="21"/>
@@ -7059,47 +7242,47 @@
         <v>10</v>
       </c>
       <c r="B12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A12)*(银行账!D3:D10050="华夏")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A12)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="C12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A12)*(银行账!J3:J10050="华夏")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A12)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A12)*(银行账!D3:D10050="招商")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A12)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="F12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A12)*(银行账!J3:J10050="招商")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A12)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A12)*(银行账!D3:D10050=H1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A12)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="I12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A12)*(银行账!J3:J10050=H1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A12)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A12)*(银行账!D3:D10050=K1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A12)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="L12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A12)*(银行账!J3:J10050=K1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A12)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="M12" s="21"/>
       <c r="N12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A12)*(银行账!D3:D10050=N1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A12)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="O12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A12)*(银行账!J3:J10050=N1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A12)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="P12" s="21"/>
@@ -7123,47 +7306,47 @@
         <v>11</v>
       </c>
       <c r="B13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A13)*(银行账!D3:D10050="华夏")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A13)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="C13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A13)*(银行账!J3:J10050="华夏")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A13)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A13)*(银行账!D3:D10050="招商")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A13)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="F13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A13)*(银行账!J3:J10050="招商")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A13)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A13)*(银行账!D3:D10050=H1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A13)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="I13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A13)*(银行账!J3:J10050=H1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A13)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A13)*(银行账!D3:D10050=K1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A13)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="L13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A13)*(银行账!J3:J10050=K1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A13)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="M13" s="21"/>
       <c r="N13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A13)*(银行账!D3:D10050=N1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A13)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="O13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A13)*(银行账!J3:J10050=N1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A13)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="P13" s="21"/>
@@ -7187,47 +7370,47 @@
         <v>12</v>
       </c>
       <c r="B14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A14)*(银行账!D3:D10050="华夏")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A14)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="C14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A14)*(银行账!J3:J10050="华夏")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A14)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A14)*(银行账!D3:D10050="招商")*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A14)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="F14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A14)*(银行账!J3:J10050="招商")*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A14)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A14)*(银行账!D3:D10050=H1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A14)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="I14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A14)*(银行账!J3:J10050=H1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A14)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A14)*(银行账!D3:D10050=K1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A14)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="L14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A14)*(银行账!J3:J10050=K1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A14)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10050)=A14)*(银行账!D3:D10050=N1)*(银行账!C3:C10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A14)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
         <v>0</v>
       </c>
       <c r="O14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10050)=A14)*(银行账!J3:J10050=N1)*(银行账!I3:I10050))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A14)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
         <v>0</v>
       </c>
       <c r="P14" s="21"/>

--- a/出纳帐.xlsx
+++ b/出纳帐.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="244">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,6 +1137,10 @@
   </si>
   <si>
     <t>订单采购（五花肉，苋菜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单采购（嫩南瓜，老蒜台）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2487,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4091,6 +4095,42 @@
       <c r="F101" s="48"/>
       <c r="H101" s="46"/>
       <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:10" s="45" customFormat="1">
+      <c r="A102" s="18">
+        <v>42180</v>
+      </c>
+      <c r="B102" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="20">
+        <v>-12.5</v>
+      </c>
+      <c r="D102" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="48"/>
+      <c r="H102" s="46"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:10" s="45" customFormat="1">
+      <c r="A103" s="18">
+        <v>42184</v>
+      </c>
+      <c r="B103" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C103" s="20">
+        <v>-8</v>
+      </c>
+      <c r="D103" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="48"/>
+      <c r="H103" s="46"/>
+      <c r="J103" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7032,7 +7072,7 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="21">
         <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A8)*(现金账!C3:C10014))</f>
-        <v>-282.10000000000002</v>
+        <v>-302.60000000000002</v>
       </c>
       <c r="R8" s="21">
         <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A8)*(现金账!H3:H10014))</f>

--- a/出纳帐.xlsx
+++ b/出纳帐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="现金账" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="245">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1141,6 +1141,10 @@
   </si>
   <si>
     <t>订单采购（嫩南瓜，老蒜台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单采购（胖哥6.19-6.29）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2493,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4145,10 +4149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:XFD115"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6451,6 +6455,26 @@
       <c r="F114" s="4"/>
       <c r="I114" s="46"/>
       <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="1:11" s="45" customFormat="1">
+      <c r="A115" s="48">
+        <v>42184</v>
+      </c>
+      <c r="B115" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" s="26">
+        <v>-149.69999999999999</v>
+      </c>
+      <c r="D115" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F115" s="4"/>
+      <c r="I115" s="46"/>
+      <c r="K115" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7036,7 +7060,7 @@
       <c r="D8" s="21"/>
       <c r="E8" s="21">
         <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A8)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
-        <v>-1066.0999999999999</v>
+        <v>-1215.8</v>
       </c>
       <c r="F8" s="21">
         <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A8)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>

--- a/出纳帐.xlsx
+++ b/出纳帐.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="246">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1145,6 +1145,10 @@
   </si>
   <si>
     <t>订单采购（胖哥6.19-6.29）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器续费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4149,10 +4153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6475,6 +6479,26 @@
       <c r="F115" s="4"/>
       <c r="I115" s="46"/>
       <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="1:11" s="45" customFormat="1">
+      <c r="A116" s="48">
+        <v>42184</v>
+      </c>
+      <c r="B116" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" s="26">
+        <v>-130</v>
+      </c>
+      <c r="D116" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F116" s="4"/>
+      <c r="I116" s="46"/>
+      <c r="K116" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7060,7 +7084,7 @@
       <c r="D8" s="21"/>
       <c r="E8" s="21">
         <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A8)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
-        <v>-1215.8</v>
+        <v>-1345.8</v>
       </c>
       <c r="F8" s="21">
         <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A8)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>

--- a/出纳帐.xlsx
+++ b/出纳帐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="现金账" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="247">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1149,6 +1149,10 @@
   </si>
   <si>
     <t>服务器续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单采购（半肥瘦、嫩南瓜）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2499,10 +2503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4140,6 +4144,24 @@
       <c r="H103" s="46"/>
       <c r="J103" s="3"/>
     </row>
+    <row r="104" spans="1:10" s="45" customFormat="1">
+      <c r="A104" s="18">
+        <v>42185</v>
+      </c>
+      <c r="B104" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C104" s="20">
+        <v>-14.5</v>
+      </c>
+      <c r="D104" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="48"/>
+      <c r="H104" s="46"/>
+      <c r="J104" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
@@ -4155,7 +4177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
@@ -7120,7 +7142,7 @@
       <c r="P8" s="21"/>
       <c r="Q8" s="21">
         <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A8)*(现金账!C3:C10014))</f>
-        <v>-302.60000000000002</v>
+        <v>-317.10000000000002</v>
       </c>
       <c r="R8" s="21">
         <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A8)*(现金账!H3:H10014))</f>

--- a/出纳帐.xlsx
+++ b/出纳帐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="现金账" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="253">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1153,6 +1153,30 @@
   </si>
   <si>
     <t>订单采购（半肥瘦、嫩南瓜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小额普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单现金收入（6月）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1916,7 +1940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1992,9 +2016,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2013,9 +2034,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2065,6 +2083,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2503,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2525,19 +2558,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="16" t="s">
@@ -2580,7 +2613,7 @@
       <c r="F3" s="1">
         <v>42076</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="43" t="s">
         <v>213</v>
       </c>
       <c r="H3" s="20">
@@ -2621,7 +2654,7 @@
       <c r="F5" s="1">
         <v>42094</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="39" t="s">
         <v>174</v>
       </c>
       <c r="H5" s="20">
@@ -2647,7 +2680,7 @@
       <c r="G6" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="47">
         <v>40</v>
       </c>
     </row>
@@ -2684,7 +2717,7 @@
       <c r="F8" s="1">
         <v>42124</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="39" t="s">
         <v>175</v>
       </c>
       <c r="H8" s="20">
@@ -2768,13 +2801,13 @@
       <c r="F12" s="1">
         <v>42136</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="39" t="s">
         <v>94</v>
       </c>
       <c r="H12" s="20">
         <v>17</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="39" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2791,7 +2824,7 @@
       <c r="F13" s="1">
         <v>42136</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="39" t="s">
         <v>109</v>
       </c>
       <c r="H13" s="20">
@@ -2814,13 +2847,13 @@
       <c r="F14" s="1">
         <v>42145</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="39" t="s">
         <v>181</v>
       </c>
       <c r="H14" s="20">
         <v>17</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="39" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2837,13 +2870,13 @@
       <c r="F15" s="1">
         <v>42146</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="39" t="s">
         <v>181</v>
       </c>
       <c r="H15" s="20">
         <v>102</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="39" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2860,13 +2893,13 @@
       <c r="F16" s="1">
         <v>42148</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="39" t="s">
         <v>187</v>
       </c>
       <c r="H16" s="20">
         <v>7</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="39" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2883,13 +2916,13 @@
       <c r="F17" s="1">
         <v>42155</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="43" t="s">
         <v>225</v>
       </c>
       <c r="H17" s="20">
         <v>632.80999999999995</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="39" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2903,16 +2936,16 @@
       <c r="C18" s="20">
         <v>-4.2</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="46">
         <v>42169</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="43" t="s">
         <v>236</v>
       </c>
       <c r="H18" s="20">
         <v>60</v>
       </c>
-      <c r="I18" s="45"/>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="17">
@@ -2924,6 +2957,18 @@
       <c r="C19" s="20">
         <v>-17</v>
       </c>
+      <c r="F19" s="46">
+        <v>42185</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="H19" s="20">
+        <v>250.4</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="17">
@@ -2940,7 +2985,7 @@
       <c r="A21" s="17">
         <v>42092</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>226</v>
       </c>
       <c r="C21" s="20">
@@ -2980,11 +3025,11 @@
         <v>-13.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="41" customFormat="1">
+    <row r="25" spans="1:10" s="39" customFormat="1">
       <c r="A25" s="17">
         <v>42094</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="39" t="s">
         <v>176</v>
       </c>
       <c r="C25" s="20">
@@ -3304,7 +3349,7 @@
       <c r="A50" s="18">
         <v>42118</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="43" t="s">
         <v>227</v>
       </c>
       <c r="C50" s="20">
@@ -3318,7 +3363,7 @@
       <c r="A51" s="18">
         <v>42120</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="43" t="s">
         <v>228</v>
       </c>
       <c r="C51" s="20">
@@ -3529,20 +3574,20 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="45" customFormat="1">
+    <row r="67" spans="1:10" s="43" customFormat="1">
       <c r="A67" s="18">
         <v>42135</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="43" t="s">
         <v>229</v>
       </c>
       <c r="C67" s="20">
         <v>-7</v>
       </c>
-      <c r="D67" s="46"/>
+      <c r="D67" s="44"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="48"/>
-      <c r="H67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="H67" s="44"/>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10">
@@ -3714,11 +3759,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="41" customFormat="1">
+    <row r="80" spans="1:10" s="39" customFormat="1">
       <c r="A80" s="18">
         <v>42145</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="39" t="s">
         <v>88</v>
       </c>
       <c r="C80" s="20">
@@ -3732,11 +3777,11 @@
       <c r="H80" s="2"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:10" s="41" customFormat="1">
+    <row r="81" spans="1:10" s="39" customFormat="1">
       <c r="A81" s="18">
         <v>42146</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="39" t="s">
         <v>180</v>
       </c>
       <c r="C81" s="20">
@@ -3750,11 +3795,11 @@
       <c r="H81" s="2"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:10" s="41" customFormat="1">
+    <row r="82" spans="1:10" s="39" customFormat="1">
       <c r="A82" s="18">
         <v>42151</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C82" s="20">
@@ -3768,11 +3813,11 @@
       <c r="H82" s="2"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10" s="41" customFormat="1">
+    <row r="83" spans="1:10" s="39" customFormat="1">
       <c r="A83" s="18">
         <v>42152</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="39" t="s">
         <v>188</v>
       </c>
       <c r="C83" s="20">
@@ -3786,381 +3831,416 @@
       <c r="H83" s="2"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10" s="45" customFormat="1">
+    <row r="84" spans="1:10" s="43" customFormat="1">
       <c r="A84" s="18">
         <v>42157</v>
       </c>
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C84" s="20">
         <v>-33</v>
       </c>
-      <c r="D84" s="46" t="s">
+      <c r="D84" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="F84" s="48"/>
-      <c r="H84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="H84" s="44"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10" s="45" customFormat="1">
+    <row r="85" spans="1:10" s="43" customFormat="1">
       <c r="A85" s="18">
         <v>42159</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="43" t="s">
         <v>52</v>
       </c>
       <c r="C85" s="20">
         <v>-14</v>
       </c>
-      <c r="D85" s="46" t="s">
+      <c r="D85" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E85" s="4"/>
-      <c r="F85" s="48"/>
-      <c r="H85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="H85" s="44"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10" s="45" customFormat="1">
+    <row r="86" spans="1:10" s="43" customFormat="1">
       <c r="A86" s="18">
         <v>42160</v>
       </c>
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C86" s="20">
         <v>-34</v>
       </c>
-      <c r="D86" s="46" t="s">
+      <c r="D86" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E86" s="4"/>
-      <c r="F86" s="48"/>
-      <c r="H86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="H86" s="44"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10" s="45" customFormat="1">
+    <row r="87" spans="1:10" s="43" customFormat="1">
       <c r="A87" s="18">
         <v>42160</v>
       </c>
-      <c r="B87" s="45" t="s">
+      <c r="B87" s="43" t="s">
         <v>211</v>
       </c>
       <c r="C87" s="20">
         <v>-6</v>
       </c>
-      <c r="D87" s="46" t="s">
+      <c r="D87" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E87" s="4"/>
-      <c r="F87" s="48"/>
-      <c r="H87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="H87" s="44"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" s="45" customFormat="1">
+    <row r="88" spans="1:10" s="43" customFormat="1">
       <c r="A88" s="18">
         <v>42160</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="43" t="s">
         <v>212</v>
       </c>
       <c r="C88" s="20">
         <v>-24.8</v>
       </c>
-      <c r="D88" s="46" t="s">
+      <c r="D88" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E88" s="4"/>
-      <c r="F88" s="48"/>
-      <c r="H88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="H88" s="44"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" s="45" customFormat="1">
+    <row r="89" spans="1:10" s="43" customFormat="1">
       <c r="A89" s="18">
         <v>42162</v>
       </c>
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="43" t="s">
         <v>214</v>
       </c>
       <c r="C89" s="20">
         <v>-10.5</v>
       </c>
-      <c r="D89" s="46"/>
+      <c r="D89" s="44"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="48"/>
-      <c r="H89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="H89" s="44"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10" s="45" customFormat="1">
+    <row r="90" spans="1:10" s="43" customFormat="1">
       <c r="A90" s="18">
         <v>42163</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="43" t="s">
         <v>106</v>
       </c>
       <c r="C90" s="20">
         <v>-7.5</v>
       </c>
-      <c r="D90" s="46" t="s">
+      <c r="D90" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E90" s="4"/>
-      <c r="F90" s="48"/>
-      <c r="H90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="H90" s="44"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10" s="45" customFormat="1">
+    <row r="91" spans="1:10" s="43" customFormat="1">
       <c r="A91" s="18">
         <v>42164</v>
       </c>
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C91" s="20">
         <v>-6.5</v>
       </c>
-      <c r="D91" s="46" t="s">
+      <c r="D91" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E91" s="4"/>
-      <c r="F91" s="48"/>
-      <c r="H91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="H91" s="44"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" s="45" customFormat="1">
+    <row r="92" spans="1:10" s="43" customFormat="1">
       <c r="A92" s="18">
         <v>42164</v>
       </c>
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="43" t="s">
         <v>215</v>
       </c>
       <c r="C92" s="20">
         <v>-24.8</v>
       </c>
-      <c r="D92" s="46" t="s">
+      <c r="D92" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E92" s="4"/>
-      <c r="F92" s="48"/>
-      <c r="H92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="H92" s="44"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10" s="45" customFormat="1">
+    <row r="93" spans="1:10" s="43" customFormat="1">
       <c r="A93" s="18">
         <v>42167</v>
       </c>
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="43" t="s">
         <v>230</v>
       </c>
       <c r="C93" s="20">
         <v>-15.5</v>
       </c>
-      <c r="D93" s="46" t="s">
+      <c r="D93" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E93" s="4"/>
-      <c r="F93" s="48"/>
-      <c r="H93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="H93" s="44"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10" s="45" customFormat="1">
+    <row r="94" spans="1:10" s="43" customFormat="1">
       <c r="A94" s="18">
         <v>42169</v>
       </c>
-      <c r="B94" s="45" t="s">
+      <c r="B94" s="43" t="s">
         <v>231</v>
       </c>
       <c r="C94" s="20">
         <v>-14</v>
       </c>
-      <c r="D94" s="46" t="s">
+      <c r="D94" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E94" s="4"/>
-      <c r="F94" s="48"/>
-      <c r="H94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="H94" s="44"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10" s="45" customFormat="1">
+    <row r="95" spans="1:10" s="43" customFormat="1">
       <c r="A95" s="18">
         <v>42170</v>
       </c>
-      <c r="B95" s="45" t="s">
+      <c r="B95" s="43" t="s">
         <v>232</v>
       </c>
       <c r="C95" s="20">
         <v>-23.5</v>
       </c>
-      <c r="D95" s="46" t="s">
+      <c r="D95" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E95" s="4"/>
-      <c r="F95" s="48"/>
-      <c r="H95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="H95" s="44"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10" s="45" customFormat="1">
+    <row r="96" spans="1:10" s="43" customFormat="1">
       <c r="A96" s="18">
         <v>42172</v>
       </c>
-      <c r="B96" s="45" t="s">
+      <c r="B96" s="43" t="s">
         <v>233</v>
       </c>
       <c r="C96" s="20">
         <v>-21</v>
       </c>
-      <c r="D96" s="46" t="s">
+      <c r="D96" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E96" s="4"/>
-      <c r="F96" s="48"/>
-      <c r="H96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="H96" s="44"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10" s="45" customFormat="1">
+    <row r="97" spans="1:11" s="43" customFormat="1">
       <c r="A97" s="18">
         <v>42172</v>
       </c>
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="43" t="s">
         <v>234</v>
       </c>
       <c r="C97" s="20">
         <v>-3.5</v>
       </c>
-      <c r="D97" s="46" t="s">
+      <c r="D97" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E97" s="4"/>
-      <c r="F97" s="48"/>
-      <c r="H97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="H97" s="44"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" s="45" customFormat="1">
+    <row r="98" spans="1:11" s="43" customFormat="1">
       <c r="A98" s="18">
-        <v>42178</v>
-      </c>
-      <c r="B98" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="C98" s="20">
-        <v>-9.5</v>
-      </c>
-      <c r="D98" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="48"/>
-      <c r="H98" s="46"/>
-      <c r="J98" s="3"/>
-    </row>
-    <row r="99" spans="1:10" s="45" customFormat="1">
+        <v>42173</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" s="28">
+        <v>-7</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="I98" s="51"/>
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="1:11" s="43" customFormat="1">
       <c r="A99" s="18">
         <v>42178</v>
       </c>
-      <c r="B99" s="45" t="s">
-        <v>231</v>
+      <c r="B99" s="43" t="s">
+        <v>242</v>
       </c>
       <c r="C99" s="20">
-        <v>-7</v>
-      </c>
-      <c r="D99" s="46" t="s">
+        <v>-9.5</v>
+      </c>
+      <c r="D99" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E99" s="4"/>
-      <c r="F99" s="48"/>
-      <c r="H99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="H99" s="44"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" s="45" customFormat="1">
+    <row r="100" spans="1:11" s="43" customFormat="1">
       <c r="A100" s="18">
-        <v>42179</v>
-      </c>
-      <c r="B100" s="45" t="s">
+        <v>42178</v>
+      </c>
+      <c r="B100" s="43" t="s">
         <v>231</v>
       </c>
       <c r="C100" s="20">
         <v>-7</v>
       </c>
-      <c r="D100" s="46" t="s">
+      <c r="D100" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E100" s="4"/>
-      <c r="F100" s="48"/>
-      <c r="H100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="H100" s="44"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10" s="45" customFormat="1">
+    <row r="101" spans="1:11" s="43" customFormat="1">
       <c r="A101" s="18">
         <v>42179</v>
       </c>
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" s="20">
+        <v>-7</v>
+      </c>
+      <c r="D101" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="46"/>
+      <c r="H101" s="44"/>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:11" s="43" customFormat="1">
+      <c r="A102" s="18">
+        <v>42179</v>
+      </c>
+      <c r="B102" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="20">
+      <c r="C102" s="20">
         <v>-20</v>
       </c>
-      <c r="D101" s="46" t="s">
+      <c r="D102" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="48"/>
-      <c r="H101" s="46"/>
-      <c r="J101" s="3"/>
-    </row>
-    <row r="102" spans="1:10" s="45" customFormat="1">
-      <c r="A102" s="18">
+      <c r="E102" s="4"/>
+      <c r="F102" s="46"/>
+      <c r="H102" s="44"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" s="43" customFormat="1">
+      <c r="A103" s="18">
         <v>42180</v>
       </c>
-      <c r="B102" s="45" t="s">
+      <c r="B103" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="20">
+      <c r="C103" s="20">
         <v>-12.5</v>
       </c>
-      <c r="D102" s="46" t="s">
+      <c r="D103" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="48"/>
-      <c r="H102" s="46"/>
-      <c r="J102" s="3"/>
-    </row>
-    <row r="103" spans="1:10" s="45" customFormat="1">
-      <c r="A103" s="18">
+      <c r="E103" s="4"/>
+      <c r="F103" s="46"/>
+      <c r="H103" s="44"/>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:11" s="43" customFormat="1">
+      <c r="A104" s="18">
         <v>42184</v>
       </c>
-      <c r="B103" s="45" t="s">
+      <c r="B104" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="C103" s="20">
+      <c r="C104" s="20">
         <v>-8</v>
       </c>
-      <c r="D103" s="46" t="s">
+      <c r="D104" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="48"/>
-      <c r="H103" s="46"/>
-      <c r="J103" s="3"/>
-    </row>
-    <row r="104" spans="1:10" s="45" customFormat="1">
-      <c r="A104" s="18">
+      <c r="E104" s="4"/>
+      <c r="F104" s="46"/>
+      <c r="H104" s="44"/>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:11" s="43" customFormat="1">
+      <c r="A105" s="18">
         <v>42185</v>
       </c>
-      <c r="B104" s="45" t="s">
+      <c r="B105" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="C104" s="20">
+      <c r="C105" s="20">
         <v>-14.5</v>
       </c>
-      <c r="D104" s="46" t="s">
+      <c r="D105" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="48"/>
-      <c r="H104" s="46"/>
-      <c r="J104" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="46"/>
+      <c r="H105" s="44"/>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:11" s="43" customFormat="1">
+      <c r="A106" s="18">
+        <v>42190</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" s="20">
+        <v>-7</v>
+      </c>
+      <c r="D106" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="46"/>
+      <c r="H106" s="44"/>
+      <c r="J106" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4175,43 +4255,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="51" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
     <col min="6" max="6" width="1.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="51" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" customWidth="1"/>
     <col min="11" max="11" width="9" style="3"/>
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="11"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
@@ -4220,7 +4300,7 @@
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -4236,567 +4316,567 @@
       <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="48" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="31" customFormat="1">
-      <c r="A3" s="30">
+    <row r="3" spans="1:11" s="30" customFormat="1">
+      <c r="A3" s="29">
         <v>42014</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="28">
         <v>-3</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="37">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="35">
         <v>42030</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="28">
         <v>8867</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="35"/>
-    </row>
-    <row r="4" spans="1:11" s="47" customFormat="1">
-      <c r="A4" s="30">
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11" s="45" customFormat="1">
+      <c r="A4" s="29">
         <v>42028</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <v>-24.5</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="37">
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="35">
         <v>42030</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="28">
         <v>9040</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="35"/>
-    </row>
-    <row r="5" spans="1:11" s="31" customFormat="1">
-      <c r="A5" s="30">
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:11" s="30" customFormat="1">
+      <c r="A5" s="29">
         <v>42028</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="28">
         <v>-99</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="37">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="35">
         <v>42032</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="28">
         <v>77</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:11" s="31" customFormat="1">
-      <c r="A6" s="30">
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="1:11" s="30" customFormat="1">
+      <c r="A6" s="29">
         <v>42028</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="28">
         <v>-19.899999999999999</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="37">
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="35">
         <v>42045</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="28">
         <v>2207.5</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="35"/>
-    </row>
-    <row r="7" spans="1:11" s="31" customFormat="1">
-      <c r="A7" s="30">
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:11" s="30" customFormat="1">
+      <c r="A7" s="29">
         <v>42029</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="28">
         <v>-31</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="37">
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="35">
         <v>42053</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="28">
         <v>50</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="1:11" s="31" customFormat="1">
-      <c r="A8" s="30">
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="1:11" s="30" customFormat="1">
+      <c r="A8" s="29">
         <v>42031</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="28">
         <v>-77</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="37">
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="35">
         <v>42055</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="26">
+      <c r="H8" s="45"/>
+      <c r="I8" s="28">
         <v>3.6</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="35"/>
-    </row>
-    <row r="9" spans="1:11" s="31" customFormat="1">
-      <c r="A9" s="30">
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" s="30" customFormat="1">
+      <c r="A9" s="29">
         <v>42035</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="28">
         <v>-373.1</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="37">
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="35">
         <v>42068</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="28">
         <v>15000</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" spans="1:11" s="31" customFormat="1">
-      <c r="A10" s="30">
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" s="30" customFormat="1">
+      <c r="A10" s="29">
         <v>42037</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="28">
         <v>-205</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="1">
         <v>42068</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="28">
         <v>200</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="1:11" s="31" customFormat="1">
-      <c r="A11" s="30">
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" s="30" customFormat="1">
+      <c r="A11" s="29">
         <v>42041</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="28">
         <v>-95</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="37">
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="35">
         <v>42071</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="28">
         <v>35</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="1:11" s="31" customFormat="1">
-      <c r="A12" s="42">
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" s="30" customFormat="1">
+      <c r="A12" s="40">
         <v>42041</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="28">
         <v>-55</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="1">
         <v>42072</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="28">
         <v>450</v>
       </c>
       <c r="J12" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="1:11" s="31" customFormat="1">
-      <c r="A13" s="43">
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" s="30" customFormat="1">
+      <c r="A13" s="41">
         <v>42045</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="28">
         <v>-17</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="1">
         <v>42072</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="28">
         <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="1:11" s="31" customFormat="1">
-      <c r="A14" s="44">
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" s="30" customFormat="1">
+      <c r="A14" s="42">
         <v>42045</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="28">
         <v>-49</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="1">
         <v>42083</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="28">
         <v>0.46</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="1:11" s="31" customFormat="1">
-      <c r="A15" s="48">
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="1:11" s="30" customFormat="1">
+      <c r="A15" s="46">
         <v>42048</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="28">
         <v>-3</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="1">
         <v>42084</v>
       </c>
       <c r="H15" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="28">
         <v>15.26</v>
       </c>
       <c r="J15" t="s">
         <v>146</v>
       </c>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="1:11" s="47" customFormat="1">
-      <c r="A16" s="48">
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" s="45" customFormat="1">
+      <c r="A16" s="46">
         <v>42053</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="28">
         <v>-50</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="1">
         <v>42084</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="28">
         <v>4.76</v>
       </c>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" spans="1:14" s="31" customFormat="1">
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:14" s="30" customFormat="1">
       <c r="A17" s="5">
         <v>42054</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="28">
         <v>-0.6</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="1">
         <v>42086</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="28">
         <v>752.23</v>
       </c>
       <c r="J17" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="1:14" s="31" customFormat="1">
-      <c r="A18" s="30">
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" spans="1:14" s="30" customFormat="1">
+      <c r="A18" s="29">
         <v>42064</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="28">
         <v>-30</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="1">
         <v>42088</v>
       </c>
       <c r="H18" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="28">
         <v>241</v>
       </c>
       <c r="J18" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="1:14" s="31" customFormat="1">
-      <c r="A19" s="30">
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:14" s="30" customFormat="1">
+      <c r="A19" s="29">
         <v>42068</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="49">
         <v>-10000</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="1">
         <v>42089</v>
       </c>
       <c r="H19" t="s">
         <v>138</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="28">
         <v>17</v>
       </c>
       <c r="J19" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" spans="1:14" s="31" customFormat="1">
-      <c r="A20" s="30">
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="1:14" s="30" customFormat="1">
+      <c r="A20" s="29">
         <v>42068</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="49">
         <v>-15000</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="34"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="1">
         <v>42090</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="28">
         <v>1</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:14" s="31" customFormat="1">
-      <c r="A21" s="30">
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:14" s="30" customFormat="1">
+      <c r="A21" s="29">
         <v>42068</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="49">
         <v>-10000</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="1">
         <v>42094</v>
       </c>
       <c r="H21" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="28">
         <v>1099.1099999999999</v>
       </c>
       <c r="J21" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="K21" s="35"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="5">
@@ -4805,7 +4885,7 @@
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="50">
         <v>-200</v>
       </c>
       <c r="D22" t="s">
@@ -4820,7 +4900,7 @@
       <c r="H22" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="28">
         <v>627.71</v>
       </c>
       <c r="J22" t="s">
@@ -4834,7 +4914,7 @@
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="28">
         <v>-182</v>
       </c>
       <c r="D23" t="s">
@@ -4843,19 +4923,19 @@
       <c r="G23" s="1">
         <v>42107</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="28">
         <v>1595</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
       </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="41"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="39"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="5">
@@ -4864,7 +4944,7 @@
       <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="28">
         <v>-690</v>
       </c>
       <c r="D24" t="s">
@@ -4876,7 +4956,7 @@
       <c r="H24" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="28">
         <v>1187.1500000000001</v>
       </c>
       <c r="J24" t="s">
@@ -4890,7 +4970,7 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="28">
         <v>-450</v>
       </c>
       <c r="D25" t="s">
@@ -4905,7 +4985,7 @@
       <c r="H25" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="28">
         <v>268</v>
       </c>
       <c r="J25" t="s">
@@ -4919,7 +4999,7 @@
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="28">
         <v>-2</v>
       </c>
       <c r="D26" t="s">
@@ -4934,7 +5014,7 @@
       <c r="H26" t="s">
         <v>123</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="28">
         <v>989.34</v>
       </c>
       <c r="J26" t="s">
@@ -4948,7 +5028,7 @@
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="28">
         <v>-3</v>
       </c>
       <c r="D27" t="s">
@@ -4960,7 +5040,7 @@
       <c r="H27" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="28">
         <v>408</v>
       </c>
       <c r="J27" t="s">
@@ -4974,7 +5054,7 @@
       <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="28">
         <v>-102.85</v>
       </c>
       <c r="D28" t="s">
@@ -4986,7 +5066,7 @@
       <c r="H28" t="s">
         <v>94</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="28">
         <v>68</v>
       </c>
       <c r="J28" t="s">
@@ -5000,7 +5080,7 @@
       <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="28">
         <v>-113</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -5013,7 +5093,7 @@
       <c r="H29" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="28">
         <v>929.48</v>
       </c>
       <c r="J29" t="s">
@@ -5027,7 +5107,7 @@
       <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="28">
         <v>-48.9</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -5040,7 +5120,7 @@
       <c r="H30" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="28">
         <v>3513.07</v>
       </c>
       <c r="J30" s="22" t="s">
@@ -5054,7 +5134,7 @@
       <c r="B31" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="28">
         <v>-41</v>
       </c>
       <c r="D31" t="s">
@@ -5066,7 +5146,7 @@
       <c r="H31" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="28">
         <v>323</v>
       </c>
       <c r="J31" t="s">
@@ -5080,7 +5160,7 @@
       <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="28">
         <v>-42.2</v>
       </c>
       <c r="D32" t="s">
@@ -5092,7 +5172,7 @@
       <c r="H32" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="28">
         <v>64</v>
       </c>
       <c r="J32" t="s">
@@ -5103,10 +5183,10 @@
       <c r="A33" s="5">
         <v>42076</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="28">
         <v>-80</v>
       </c>
       <c r="D33" t="s">
@@ -5118,7 +5198,7 @@
       <c r="H33" t="s">
         <v>161</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="28">
         <v>0.19</v>
       </c>
       <c r="J33" t="s">
@@ -5132,7 +5212,7 @@
       <c r="B34" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="28">
         <v>-59.6</v>
       </c>
       <c r="D34" t="s">
@@ -5144,37 +5224,37 @@
       <c r="H34" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="52">
         <v>841.68</v>
       </c>
       <c r="J34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="41" customFormat="1">
+    <row r="35" spans="1:11" s="39" customFormat="1">
       <c r="A35" s="5">
         <v>42080</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="28">
         <v>-5</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="48">
+      <c r="G35" s="46">
         <v>42137</v>
       </c>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="28">
         <v>22.17</v>
       </c>
-      <c r="J35" s="45" t="s">
+      <c r="J35" s="43" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="3"/>
@@ -5186,22 +5266,22 @@
       <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="28">
         <v>-97.5</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G36" s="46">
         <v>42143</v>
       </c>
-      <c r="H36" s="45" t="s">
+      <c r="H36" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="28">
         <v>5000</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5212,7 +5292,7 @@
       <c r="B37" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="28">
         <v>-1000</v>
       </c>
       <c r="D37" t="s">
@@ -5221,16 +5301,16 @@
       <c r="E37" t="s">
         <v>129</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="46">
         <v>42144</v>
       </c>
-      <c r="H37" s="45" t="s">
+      <c r="H37" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="28">
         <v>699</v>
       </c>
-      <c r="J37" s="45" t="s">
+      <c r="J37" s="43" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5241,22 +5321,22 @@
       <c r="B38" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="28">
         <v>-88.7</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="46">
         <v>42148</v>
       </c>
-      <c r="H38" s="45" t="s">
+      <c r="H38" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="28">
         <v>985.06</v>
       </c>
-      <c r="J38" s="45" t="s">
+      <c r="J38" s="43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5267,50 +5347,50 @@
       <c r="B39" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="28">
         <v>-425</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="46">
         <v>42155</v>
       </c>
-      <c r="H39" s="45" t="s">
+      <c r="H39" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="52">
         <v>2065.77</v>
       </c>
       <c r="J39" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="41" customFormat="1">
+    <row r="40" spans="1:11" s="39" customFormat="1">
       <c r="A40" s="5">
         <v>42085</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="28">
         <v>-0.6</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="39" t="s">
         <v>146</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="48">
-        <v>42174</v>
-      </c>
-      <c r="H40" s="45" t="s">
+      <c r="G40" s="46">
+        <v>42157</v>
+      </c>
+      <c r="H40" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="I40" s="36">
-        <v>17.98</v>
-      </c>
-      <c r="J40" s="22" t="s">
-        <v>241</v>
+      <c r="I40" s="52">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>26</v>
       </c>
       <c r="K40" s="3"/>
     </row>
@@ -5321,11 +5401,23 @@
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="28">
         <v>-156.1</v>
       </c>
       <c r="D41" t="s">
         <v>31</v>
+      </c>
+      <c r="G41" s="46">
+        <v>42158</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="I41" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5335,13 +5427,25 @@
       <c r="B42" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="28">
         <v>-752.23</v>
       </c>
       <c r="D42" t="s">
         <v>122</v>
       </c>
       <c r="E42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="46">
+        <v>42162</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" s="25">
+        <v>788.45</v>
+      </c>
+      <c r="J42" s="43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5352,11 +5456,23 @@
       <c r="B43" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="28">
         <v>-4.43</v>
       </c>
       <c r="D43" t="s">
         <v>122</v>
+      </c>
+      <c r="G43" s="46">
+        <v>42163</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="I43" s="25">
+        <v>0.62</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -5366,11 +5482,23 @@
       <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="28">
         <v>-114.3</v>
       </c>
       <c r="D44" t="s">
         <v>37</v>
+      </c>
+      <c r="G44" s="46">
+        <v>42174</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="I44" s="52">
+        <v>17.98</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5380,11 +5508,23 @@
       <c r="B45" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="28">
         <v>-482</v>
       </c>
       <c r="D45" t="s">
         <v>134</v>
+      </c>
+      <c r="G45" s="46">
+        <v>42175</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="I45" s="34">
+        <v>2.41</v>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -5394,7 +5534,7 @@
       <c r="B46" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="28">
         <v>-500</v>
       </c>
       <c r="D46" t="s">
@@ -5402,20 +5542,44 @@
       </c>
       <c r="E46" t="s">
         <v>57</v>
+      </c>
+      <c r="G46" s="46">
+        <v>42176</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="I46" s="34">
+        <v>2.84</v>
+      </c>
+      <c r="J46" s="43" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="5">
         <v>42089</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="28">
         <v>-68.7</v>
       </c>
       <c r="D47" t="s">
         <v>38</v>
+      </c>
+      <c r="G47" s="46">
+        <v>42183</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" s="25">
+        <v>865.88</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5425,45 +5589,57 @@
       <c r="B48" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="28">
         <v>-18</v>
       </c>
       <c r="D48" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" s="41" customFormat="1">
+      <c r="G48" s="46">
+        <v>42185</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="I48" s="34">
+        <v>1424.89</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="39" customFormat="1">
       <c r="A49" s="5">
         <v>42090</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="28">
         <v>-1</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="39" t="s">
         <v>120</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="I49" s="2"/>
+      <c r="I49" s="51"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" s="41" customFormat="1">
+    <row r="50" spans="1:11" s="39" customFormat="1">
       <c r="A50" s="5">
         <v>42090</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="28">
         <v>-4</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="39" t="s">
         <v>120</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="I50" s="2"/>
+      <c r="I50" s="51"/>
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11">
@@ -5473,7 +5649,7 @@
       <c r="B51" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="26">
+      <c r="C51" s="28">
         <v>-580</v>
       </c>
       <c r="D51" t="s">
@@ -5487,7 +5663,7 @@
       <c r="B52" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="28">
         <v>-119.1</v>
       </c>
       <c r="D52" t="s">
@@ -5501,7 +5677,7 @@
       <c r="B53" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="26">
+      <c r="C53" s="28">
         <v>-63</v>
       </c>
       <c r="D53" t="s">
@@ -5515,7 +5691,7 @@
       <c r="B54" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="26">
+      <c r="C54" s="28">
         <v>-30</v>
       </c>
       <c r="D54" t="s">
@@ -5529,11 +5705,14 @@
       <c r="B55" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="28">
         <v>-102.8</v>
       </c>
       <c r="D55" t="s">
         <v>38</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5543,7 +5722,7 @@
       <c r="B56" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="25">
+      <c r="C56" s="50">
         <v>-627.71</v>
       </c>
       <c r="D56" t="s">
@@ -5560,7 +5739,7 @@
       <c r="B57" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="25">
+      <c r="C57" s="50">
         <v>-3.72</v>
       </c>
       <c r="D57" t="s">
@@ -5574,7 +5753,7 @@
       <c r="B58" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="28">
         <v>-61.7</v>
       </c>
       <c r="D58" t="s">
@@ -5588,7 +5767,7 @@
       <c r="B59" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="26">
+      <c r="C59" s="28">
         <v>-189.36</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -5603,7 +5782,7 @@
       <c r="B60" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="28">
         <v>-195.7</v>
       </c>
       <c r="D60" t="s">
@@ -5614,10 +5793,10 @@
       <c r="A61" s="5">
         <v>42107</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="28">
         <v>-70</v>
       </c>
       <c r="D61" t="s">
@@ -5634,7 +5813,7 @@
       <c r="B62" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="26">
+      <c r="C62" s="28">
         <v>-40</v>
       </c>
       <c r="D62" t="s">
@@ -5648,7 +5827,7 @@
       <c r="B63" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="26">
+      <c r="C63" s="28">
         <v>-48</v>
       </c>
       <c r="D63" t="s">
@@ -5662,7 +5841,7 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="26">
+      <c r="C64" s="28">
         <v>-475</v>
       </c>
       <c r="D64" t="s">
@@ -5673,20 +5852,20 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="28">
+      <c r="A65" s="27">
         <v>42108</v>
       </c>
       <c r="B65" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="26">
+      <c r="C65" s="28">
         <v>-50</v>
       </c>
       <c r="D65" t="s">
         <v>149</v>
       </c>
-      <c r="F65" s="27"/>
-      <c r="K65" s="27"/>
+      <c r="F65" s="26"/>
+      <c r="K65" s="26"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1">
@@ -5695,13 +5874,13 @@
       <c r="B66" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="26">
+      <c r="C66" s="28">
         <v>-135</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="27"/>
+      <c r="E66" s="26"/>
       <c r="F66" s="1"/>
       <c r="K66"/>
     </row>
@@ -5712,13 +5891,13 @@
       <c r="B67" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="26">
+      <c r="C67" s="28">
         <v>-5</v>
       </c>
       <c r="D67" t="s">
         <v>149</v>
       </c>
-      <c r="E67" s="27"/>
+      <c r="E67" s="26"/>
       <c r="F67" s="1"/>
       <c r="K67"/>
     </row>
@@ -5729,7 +5908,7 @@
       <c r="B68" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="26">
+      <c r="C68" s="28">
         <v>-301.10000000000002</v>
       </c>
       <c r="D68" t="s">
@@ -5743,7 +5922,7 @@
       <c r="B69" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="26">
+      <c r="C69" s="28">
         <v>-1187.1500000000001</v>
       </c>
       <c r="D69" t="s">
@@ -5760,7 +5939,7 @@
       <c r="B70" t="s">
         <v>151</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="28">
         <v>-7.12</v>
       </c>
       <c r="D70" t="s">
@@ -5774,7 +5953,7 @@
       <c r="B71" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="26">
+      <c r="C71" s="28">
         <v>-22</v>
       </c>
       <c r="D71" t="s">
@@ -5788,7 +5967,7 @@
       <c r="B72" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="26">
+      <c r="C72" s="28">
         <v>-37.200000000000003</v>
       </c>
       <c r="D72" t="s">
@@ -5802,7 +5981,7 @@
       <c r="B73" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="26">
+      <c r="C73" s="28">
         <v>-39</v>
       </c>
       <c r="D73" t="s">
@@ -5816,7 +5995,7 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="26">
+      <c r="C74" s="28">
         <v>-355</v>
       </c>
       <c r="D74" t="s">
@@ -5830,7 +6009,7 @@
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="26">
+      <c r="C75" s="28">
         <v>-56.5</v>
       </c>
       <c r="D75" t="s">
@@ -5844,7 +6023,7 @@
       <c r="B76" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="26">
+      <c r="C76" s="28">
         <v>-2782</v>
       </c>
       <c r="D76" t="s">
@@ -5861,7 +6040,7 @@
       <c r="B77" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="26">
+      <c r="C77" s="28">
         <v>-268</v>
       </c>
       <c r="D77" t="s">
@@ -5878,7 +6057,7 @@
       <c r="B78" t="s">
         <v>152</v>
       </c>
-      <c r="C78" s="26">
+      <c r="C78" s="28">
         <v>-0.6</v>
       </c>
       <c r="D78" t="s">
@@ -5892,7 +6071,7 @@
       <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="28">
         <v>-270</v>
       </c>
       <c r="D79" t="s">
@@ -5906,7 +6085,7 @@
       <c r="B80" t="s">
         <v>121</v>
       </c>
-      <c r="C80" s="26">
+      <c r="C80" s="28">
         <v>-989.34</v>
       </c>
       <c r="D80" t="s">
@@ -5923,7 +6102,7 @@
       <c r="B81" t="s">
         <v>151</v>
       </c>
-      <c r="C81" s="26">
+      <c r="C81" s="28">
         <v>-5.98</v>
       </c>
       <c r="D81" t="s">
@@ -5937,7 +6116,7 @@
       <c r="B82" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="26">
+      <c r="C82" s="28">
         <v>-257.2</v>
       </c>
       <c r="D82" t="s">
@@ -5951,7 +6130,7 @@
       <c r="B83" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="26">
+      <c r="C83" s="28">
         <v>-34</v>
       </c>
       <c r="D83" t="s">
@@ -5965,7 +6144,7 @@
       <c r="B84" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="26">
+      <c r="C84" s="28">
         <v>-210.4</v>
       </c>
       <c r="D84" t="s">
@@ -5979,7 +6158,7 @@
       <c r="B85" t="s">
         <v>155</v>
       </c>
-      <c r="C85" s="26">
+      <c r="C85" s="28">
         <v>-699</v>
       </c>
       <c r="D85" t="s">
@@ -5993,7 +6172,7 @@
       <c r="B86" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="26">
+      <c r="C86" s="28">
         <v>-65</v>
       </c>
       <c r="D86" t="s">
@@ -6007,7 +6186,7 @@
       <c r="B87" t="s">
         <v>121</v>
       </c>
-      <c r="C87" s="26">
+      <c r="C87" s="28">
         <v>-929.48</v>
       </c>
       <c r="D87" t="s">
@@ -6024,7 +6203,7 @@
       <c r="B88" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="26">
+      <c r="C88" s="28">
         <v>-5.63</v>
       </c>
       <c r="D88" t="s">
@@ -6038,7 +6217,7 @@
       <c r="B89" t="s">
         <v>159</v>
       </c>
-      <c r="C89" s="26">
+      <c r="C89" s="28">
         <v>-30</v>
       </c>
       <c r="D89" t="s">
@@ -6049,10 +6228,10 @@
       <c r="A90" s="1">
         <v>42130</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="C90" s="26">
+      <c r="C90" s="28">
         <v>-300</v>
       </c>
       <c r="D90" t="s">
@@ -6066,7 +6245,7 @@
       <c r="B91" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="26">
+      <c r="C91" s="28">
         <v>-152</v>
       </c>
       <c r="D91" t="s">
@@ -6080,7 +6259,7 @@
       <c r="B92" t="s">
         <v>103</v>
       </c>
-      <c r="C92" s="26">
+      <c r="C92" s="28">
         <v>-170.5</v>
       </c>
       <c r="D92" t="s">
@@ -6094,7 +6273,7 @@
       <c r="B93" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="26">
+      <c r="C93" s="28">
         <v>-200</v>
       </c>
       <c r="D93" t="s">
@@ -6111,7 +6290,7 @@
       <c r="B94" t="s">
         <v>107</v>
       </c>
-      <c r="C94" s="26">
+      <c r="C94" s="28">
         <v>-161.69999999999999</v>
       </c>
       <c r="D94" t="s">
@@ -6122,16 +6301,16 @@
       <c r="A95" s="1">
         <v>42136</v>
       </c>
-      <c r="B95" s="45" t="s">
+      <c r="B95" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C95" s="26">
+      <c r="C95" s="28">
         <v>-160</v>
       </c>
-      <c r="D95" s="45" t="s">
+      <c r="D95" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E95" s="45" t="s">
+      <c r="E95" s="43" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6142,7 +6321,7 @@
       <c r="B96" t="s">
         <v>121</v>
       </c>
-      <c r="C96" s="26">
+      <c r="C96" s="28">
         <v>-841.68</v>
       </c>
       <c r="D96" t="s">
@@ -6159,7 +6338,7 @@
       <c r="B97" t="s">
         <v>151</v>
       </c>
-      <c r="C97" s="26">
+      <c r="C97" s="28">
         <v>-5.1100000000000003</v>
       </c>
       <c r="D97" t="s">
@@ -6173,7 +6352,7 @@
       <c r="B98" t="s">
         <v>127</v>
       </c>
-      <c r="C98" s="26">
+      <c r="C98" s="28">
         <v>-150.80000000000001</v>
       </c>
       <c r="D98" t="s">
@@ -6187,7 +6366,7 @@
       <c r="B99" t="s">
         <v>126</v>
       </c>
-      <c r="C99" s="26">
+      <c r="C99" s="28">
         <v>-182.7</v>
       </c>
       <c r="D99" t="s">
@@ -6204,7 +6383,7 @@
       <c r="B100" t="s">
         <v>157</v>
       </c>
-      <c r="C100" s="26">
+      <c r="C100" s="28">
         <v>-59</v>
       </c>
       <c r="D100" t="s">
@@ -6214,313 +6393,404 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="45" customFormat="1">
-      <c r="A101" s="48">
+    <row r="101" spans="1:11" s="43" customFormat="1">
+      <c r="A101" s="46">
         <v>42143</v>
       </c>
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="C101" s="26">
+      <c r="C101" s="28">
         <v>-106</v>
       </c>
-      <c r="D101" s="45" t="s">
+      <c r="D101" s="43" t="s">
         <v>122</v>
       </c>
       <c r="F101" s="4"/>
-      <c r="I101" s="46"/>
+      <c r="I101" s="51"/>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="1:11" s="45" customFormat="1">
-      <c r="A102" s="48">
+    <row r="102" spans="1:11" s="43" customFormat="1">
+      <c r="A102" s="46">
         <v>42143</v>
       </c>
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="C102" s="26">
+      <c r="C102" s="28">
         <v>-5000</v>
       </c>
-      <c r="D102" s="45" t="s">
+      <c r="D102" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="E102" s="45" t="s">
+      <c r="E102" s="43" t="s">
         <v>220</v>
       </c>
       <c r="F102" s="4"/>
-      <c r="I102" s="46"/>
+      <c r="I102" s="51"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:11" s="45" customFormat="1">
-      <c r="A103" s="48">
+    <row r="103" spans="1:11" s="43" customFormat="1">
+      <c r="A103" s="46">
         <v>42143</v>
       </c>
-      <c r="B103" s="45" t="s">
+      <c r="B103" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="C103" s="26">
+      <c r="C103" s="28">
         <v>-5</v>
       </c>
-      <c r="D103" s="45" t="s">
+      <c r="D103" s="43" t="s">
         <v>219</v>
       </c>
       <c r="F103" s="4"/>
-      <c r="I103" s="46"/>
+      <c r="I103" s="51"/>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" s="45" customFormat="1">
-      <c r="A104" s="48">
+    <row r="104" spans="1:11" s="43" customFormat="1">
+      <c r="A104" s="46">
         <v>42148</v>
       </c>
-      <c r="B104" s="45" t="s">
+      <c r="B104" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C104" s="26">
+      <c r="C104" s="28">
         <v>-985.06</v>
       </c>
-      <c r="D104" s="45" t="s">
+      <c r="D104" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="E104" s="45" t="s">
+      <c r="E104" s="43" t="s">
         <v>120</v>
       </c>
       <c r="F104" s="4"/>
-      <c r="I104" s="46"/>
+      <c r="I104" s="51"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11" s="45" customFormat="1">
-      <c r="A105" s="48">
+    <row r="105" spans="1:11" s="43" customFormat="1">
+      <c r="A105" s="46">
         <v>42148</v>
       </c>
-      <c r="B105" s="45" t="s">
+      <c r="B105" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="C105" s="26">
+      <c r="C105" s="28">
         <v>-5.97</v>
       </c>
-      <c r="D105" s="45" t="s">
+      <c r="D105" s="43" t="s">
         <v>122</v>
       </c>
       <c r="F105" s="4"/>
-      <c r="I105" s="46"/>
+      <c r="I105" s="51"/>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" s="41" customFormat="1">
+    <row r="106" spans="1:11" s="39" customFormat="1">
       <c r="A106" s="1">
         <v>42149</v>
       </c>
-      <c r="B106" s="41" t="s">
+      <c r="B106" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="26">
+      <c r="C106" s="28">
         <v>-126.2</v>
       </c>
-      <c r="D106" s="41" t="s">
+      <c r="D106" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E106" s="41" t="s">
+      <c r="E106" s="39" t="s">
         <v>68</v>
       </c>
       <c r="F106" s="4"/>
-      <c r="I106" s="2"/>
+      <c r="I106" s="51"/>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11" s="41" customFormat="1">
+    <row r="107" spans="1:11" s="39" customFormat="1">
       <c r="A107" s="1">
         <v>42149</v>
       </c>
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="C107" s="26">
+      <c r="C107" s="28">
         <v>-203.4</v>
       </c>
-      <c r="D107" s="41" t="s">
+      <c r="D107" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="41" t="s">
+      <c r="E107" s="39" t="s">
         <v>68</v>
       </c>
       <c r="F107" s="4"/>
-      <c r="I107" s="2"/>
+      <c r="I107" s="51"/>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" s="41" customFormat="1">
+    <row r="108" spans="1:11" s="39" customFormat="1">
       <c r="A108" s="1">
         <v>42153</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C108" s="26">
+      <c r="C108" s="28">
         <v>-186.1</v>
       </c>
-      <c r="D108" s="41" t="s">
+      <c r="D108" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E108" s="41" t="s">
+      <c r="E108" s="39" t="s">
         <v>68</v>
       </c>
       <c r="F108" s="4"/>
-      <c r="I108" s="2"/>
+      <c r="I108" s="51"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" s="45" customFormat="1">
-      <c r="A109" s="48">
+    <row r="109" spans="1:11" s="43" customFormat="1">
+      <c r="A109" s="5">
+        <v>42156</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" s="25">
+        <v>-30</v>
+      </c>
+      <c r="D109" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="F109" s="4"/>
+      <c r="I109" s="51"/>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:11" s="43" customFormat="1">
+      <c r="A110" s="46">
         <v>42159</v>
       </c>
-      <c r="B109" s="45" t="s">
+      <c r="B110" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="C109" s="26">
+      <c r="C110" s="25">
         <v>-300</v>
       </c>
-      <c r="D109" s="45" t="s">
+      <c r="D110" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E109" s="45" t="s">
+      <c r="E110" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F109" s="4"/>
-      <c r="I109" s="46"/>
-      <c r="K109" s="3"/>
-    </row>
-    <row r="110" spans="1:11" s="45" customFormat="1">
-      <c r="A110" s="48">
+      <c r="F110" s="4"/>
+      <c r="I110" s="51"/>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="1:11" s="43" customFormat="1">
+      <c r="A111" s="46">
         <v>42159</v>
       </c>
-      <c r="B110" s="45" t="s">
+      <c r="B111" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="C110" s="26">
+      <c r="C111" s="25">
         <v>-161.19999999999999</v>
       </c>
-      <c r="D110" s="45" t="s">
+      <c r="D111" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E110" s="45" t="s">
+      <c r="E111" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F110" s="4"/>
-      <c r="I110" s="46"/>
-      <c r="K110" s="3"/>
-    </row>
-    <row r="111" spans="1:11" s="45" customFormat="1">
-      <c r="A111" s="48">
+      <c r="F111" s="4"/>
+      <c r="I111" s="51"/>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:11" s="43" customFormat="1">
+      <c r="A112" s="46">
+        <v>42162</v>
+      </c>
+      <c r="B112" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="25">
+        <v>-788.45</v>
+      </c>
+      <c r="D112" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F112" s="4"/>
+      <c r="I112" s="51"/>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" s="43" customFormat="1">
+      <c r="A113" s="46">
+        <v>42162</v>
+      </c>
+      <c r="B113" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C113" s="25">
+        <v>-4.75</v>
+      </c>
+      <c r="D113" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F113" s="4"/>
+      <c r="I113" s="51"/>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="1:11" s="43" customFormat="1">
+      <c r="A114" s="46">
         <v>42165</v>
       </c>
-      <c r="B111" s="45" t="s">
+      <c r="B114" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="C111" s="26">
+      <c r="C114" s="25">
         <v>-164.7</v>
       </c>
-      <c r="D111" s="45" t="s">
+      <c r="D114" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E111" s="45" t="s">
+      <c r="E114" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F111" s="4"/>
-      <c r="I111" s="46"/>
-      <c r="K111" s="3"/>
-    </row>
-    <row r="112" spans="1:11" s="45" customFormat="1">
-      <c r="A112" s="48">
+      <c r="F114" s="4"/>
+      <c r="I114" s="51"/>
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="1:11" s="43" customFormat="1">
+      <c r="A115" s="46">
         <v>42173</v>
       </c>
-      <c r="B112" s="45" t="s">
+      <c r="B115" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="C112" s="26">
+      <c r="C115" s="25">
         <v>-133.19999999999999</v>
       </c>
-      <c r="D112" s="45" t="s">
+      <c r="D115" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E112" s="45" t="s">
+      <c r="E115" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F112" s="4"/>
-      <c r="I112" s="46"/>
-      <c r="K112" s="3"/>
-    </row>
-    <row r="113" spans="1:11" s="45" customFormat="1">
-      <c r="A113" s="48">
+      <c r="F115" s="4"/>
+      <c r="I115" s="51"/>
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="1:11" s="43" customFormat="1">
+      <c r="A116" s="46">
         <v>42173</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B116" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C113" s="26">
+      <c r="C116" s="25">
         <v>-300</v>
       </c>
-      <c r="D113" s="45" t="s">
+      <c r="D116" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E113" s="45" t="s">
+      <c r="E116" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="F113" s="4"/>
-      <c r="I113" s="46"/>
-      <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="1:11" s="45" customFormat="1">
-      <c r="A114" s="48">
-        <v>42173</v>
-      </c>
-      <c r="B114" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="C114" s="26">
-        <v>-7</v>
-      </c>
-      <c r="D114" s="45" t="s">
+      <c r="F116" s="4"/>
+      <c r="I116" s="51"/>
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="1:11" s="43" customFormat="1">
+      <c r="A117" s="46">
+        <v>42181</v>
+      </c>
+      <c r="B117" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117" s="25">
+        <v>-1.8</v>
+      </c>
+      <c r="D117" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F117" s="4"/>
+      <c r="I117" s="51"/>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="1:11" s="43" customFormat="1">
+      <c r="A118" s="46">
+        <v>42183</v>
+      </c>
+      <c r="B118" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" s="25">
+        <v>-865.88</v>
+      </c>
+      <c r="D118" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E118" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F118" s="4"/>
+      <c r="I118" s="51"/>
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="1:11" s="43" customFormat="1">
+      <c r="A119" s="46">
+        <v>42183</v>
+      </c>
+      <c r="B119" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C119" s="25">
+        <v>-5.23</v>
+      </c>
+      <c r="D119" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="I119" s="51"/>
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="1:11" s="43" customFormat="1">
+      <c r="A120" s="46">
+        <v>42184</v>
+      </c>
+      <c r="B120" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C120" s="25">
+        <v>-149.69999999999999</v>
+      </c>
+      <c r="D120" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F114" s="4"/>
-      <c r="I114" s="46"/>
-      <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="1:11" s="45" customFormat="1">
-      <c r="A115" s="48">
+      <c r="E120" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F120" s="4"/>
+      <c r="I120" s="51"/>
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="1:11" s="43" customFormat="1">
+      <c r="A121" s="46">
         <v>42184</v>
       </c>
-      <c r="B115" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="C115" s="26">
-        <v>-149.69999999999999</v>
-      </c>
-      <c r="D115" s="45" t="s">
+      <c r="B121" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="25">
+        <v>-130</v>
+      </c>
+      <c r="D121" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E115" s="45" t="s">
+      <c r="E121" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F115" s="4"/>
-      <c r="I115" s="46"/>
-      <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="1:11" s="45" customFormat="1">
-      <c r="A116" s="48">
-        <v>42184</v>
-      </c>
-      <c r="B116" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C116" s="26">
-        <v>-130</v>
-      </c>
-      <c r="D116" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E116" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F116" s="4"/>
-      <c r="I116" s="46"/>
-      <c r="K116" s="3"/>
+      <c r="F121" s="4"/>
+      <c r="I121" s="51"/>
+      <c r="K121" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6554,8 +6824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6566,56 +6836,56 @@
     <col min="5" max="5" width="12" style="12" customWidth="1"/>
     <col min="6" max="6" width="11" style="12" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="41" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="41" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="41" customWidth="1"/>
-    <col min="12" max="12" width="10" style="41" customWidth="1"/>
-    <col min="13" max="14" width="11.375" style="41" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="41" customWidth="1"/>
-    <col min="16" max="16" width="10.625" style="41" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="41" customWidth="1"/>
-    <col min="18" max="18" width="10.125" style="41" customWidth="1"/>
-    <col min="19" max="19" width="9.625" style="41" customWidth="1"/>
-    <col min="20" max="23" width="9.25" style="41" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.75" style="41" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="41"/>
+    <col min="8" max="8" width="8.875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="39" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="39" customWidth="1"/>
+    <col min="12" max="12" width="10" style="39" customWidth="1"/>
+    <col min="13" max="14" width="11.375" style="39" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="39" customWidth="1"/>
+    <col min="16" max="16" width="10.625" style="39" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="39" customWidth="1"/>
+    <col min="18" max="18" width="10.125" style="39" customWidth="1"/>
+    <col min="19" max="19" width="9.625" style="39" customWidth="1"/>
+    <col min="20" max="23" width="9.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="23" customFormat="1" ht="40.5">
       <c r="A1" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="55" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="58" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="58" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="54" t="s">
+      <c r="O1" s="62"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
       <c r="T1" s="24"/>
       <c r="U1" s="24"/>
       <c r="V1" s="24"/>
@@ -6623,7 +6893,7 @@
       <c r="X1" s="24"/>
     </row>
     <row r="2" spans="1:24" s="23" customFormat="1">
-      <c r="A2" s="40"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="15" t="s">
         <v>171</v>
       </c>
@@ -6689,11 +6959,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A3)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A3)*(银行账!D3:D10054="华夏")*(银行账!C3:C10054))</f>
         <v>-624.5</v>
       </c>
       <c r="C3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A3)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A3)*(银行账!J3:J10054="华夏")*(银行账!I3:I10054))</f>
         <v>8867</v>
       </c>
       <c r="D3" s="21">
@@ -6701,11 +6971,11 @@
         <v>22483.129999999997</v>
       </c>
       <c r="E3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A3)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A3)*(银行账!D3:D10054="招商")*(银行账!C3:C10054))</f>
         <v>-3</v>
       </c>
       <c r="F3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A3)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A3)*(银行账!J3:J10054="招商")*(银行账!I3:I10054))</f>
         <v>9117</v>
       </c>
       <c r="G3" s="21">
@@ -6713,11 +6983,11 @@
         <v>9142.1299999999992</v>
       </c>
       <c r="H3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A3)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A3)*(银行账!D3:D10054=H1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="I3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A3)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A3)*(银行账!J3:J10054=H1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="J3" s="21">
@@ -6725,11 +6995,11 @@
         <v>0</v>
       </c>
       <c r="K3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A3)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A3)*(银行账!D3:D10054=K1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="L3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A3)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A3)*(银行账!J3:J10054=K1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="M3" s="21">
@@ -6737,11 +7007,11 @@
         <v>0</v>
       </c>
       <c r="N3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A3)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A3)*(银行账!D3:D10054=N1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="O3" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A3)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A3)*(银行账!J3:J10054=N1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="P3" s="21">
@@ -6749,33 +7019,33 @@
         <v>0</v>
       </c>
       <c r="Q3" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A3)*(现金账!C3:C10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10015)=A3)*(现金账!C3:C10015))</f>
         <v>0</v>
       </c>
       <c r="R3" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A3)*(现金账!H3:H10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10015)=A3)*(现金账!H3:H10015))</f>
         <v>0</v>
       </c>
       <c r="S3" s="21">
         <f>SUM(Q3:R3)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="38"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="36"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A4)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A4)*(银行账!D3:D10054="华夏")*(银行账!C3:C10054))</f>
         <v>-474.6</v>
       </c>
       <c r="C4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A4)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A4)*(银行账!J3:J10054="华夏")*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="D4" s="21">
@@ -6783,11 +7053,11 @@
         <v>22008.53</v>
       </c>
       <c r="E4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A4)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A4)*(银行账!D3:D10054="招商")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="F4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A4)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A4)*(银行账!J3:J10054="招商")*(银行账!I3:I10054))</f>
         <v>2261.1</v>
       </c>
       <c r="G4" s="21">
@@ -6795,66 +7065,66 @@
         <v>11403.23</v>
       </c>
       <c r="H4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A4)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A4)*(银行账!D3:D10054=H1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="I4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A4)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A4)*(银行账!J3:J10054=H1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="J4" s="21">
         <v>0</v>
       </c>
       <c r="K4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A4)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A4)*(银行账!D3:D10054=K1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="L4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A4)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A4)*(银行账!J3:J10054=K1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="M4" s="21">
         <v>181.14</v>
       </c>
       <c r="N4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A4)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A4)*(银行账!D3:D10054=N1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="O4" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A4)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A4)*(银行账!J3:J10054=N1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="P4" s="21">
         <v>515.4</v>
       </c>
       <c r="Q4" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A4)*(现金账!C3:C10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10015)=A4)*(现金账!C3:C10015))</f>
         <v>0</v>
       </c>
       <c r="R4" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A4)*(现金账!H3:H10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10015)=A4)*(现金账!H3:H10015))</f>
         <v>0</v>
       </c>
       <c r="S4" s="21">
         <f>SUM(Q4:R4,S3)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="38"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="36"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A5)*(银行账!D3:D10049=B1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A5)*(银行账!D3:D10054=B1)*(银行账!C3:C10054))</f>
         <v>-16761.550000000003</v>
       </c>
       <c r="C5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A5)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A5)*(银行账!J3:J10054="华夏")*(银行账!I3:I10054))</f>
         <v>15.26</v>
       </c>
       <c r="D5" s="21">
@@ -6862,11 +7132,11 @@
         <v>5262.2399999999943</v>
       </c>
       <c r="E5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A5)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A5)*(银行账!D3:D10054="招商")*(银行账!C3:C10054))</f>
         <v>-23780.999999999996</v>
       </c>
       <c r="F5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A5)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A5)*(银行账!J3:J10054="招商")*(银行账!I3:I10054))</f>
         <v>15263.76</v>
       </c>
       <c r="G5" s="21">
@@ -6874,11 +7144,11 @@
         <v>2885.9900000000034</v>
       </c>
       <c r="H5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A5)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A5)*(银行账!D3:D10054=H1)*(银行账!C3:C10054))</f>
         <v>-190</v>
       </c>
       <c r="I5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A5)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A5)*(银行账!J3:J10054=H1)*(银行账!I3:I10054))</f>
         <v>687</v>
       </c>
       <c r="J5" s="21">
@@ -6886,11 +7156,11 @@
         <v>497</v>
       </c>
       <c r="K5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A5)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A5)*(银行账!D3:D10054=K1)*(银行账!C3:C10054))</f>
         <v>-756.66</v>
       </c>
       <c r="L5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A5)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A5)*(银行账!J3:J10054=K1)*(银行账!I3:I10054))</f>
         <v>1099.1099999999999</v>
       </c>
       <c r="M5" s="21">
@@ -6898,11 +7168,11 @@
         <v>523.58999999999992</v>
       </c>
       <c r="N5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A5)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A5)*(银行账!D3:D10054=N1)*(银行账!C3:C10054))</f>
         <v>-35</v>
       </c>
       <c r="O5" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A5)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A5)*(银行账!J3:J10054=N1)*(银行账!I3:I10054))</f>
         <v>752.69</v>
       </c>
       <c r="P5" s="21">
@@ -6910,115 +7180,115 @@
         <v>1233.0900000000001</v>
       </c>
       <c r="Q5" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A5)*(现金账!C3:C10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10015)=A5)*(现金账!C3:C10015))</f>
         <v>-1677.2100000000003</v>
       </c>
       <c r="R5" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A5)*(现金账!H3:H10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10015)=A5)*(现金账!H3:H10015))</f>
         <v>2194.5</v>
       </c>
       <c r="S5" s="21">
         <f>SUM(Q5:R5)+S4</f>
         <v>517.28999999999974</v>
       </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="38"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="36"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A6)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A6)*(银行账!D3:D10054="华夏")*(银行账!C3:C10054))</f>
         <v>-2536.4599999999996</v>
       </c>
       <c r="C6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A6)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A6)*(银行账!J3:J10054="华夏")*(银行账!I3:I10054))</f>
         <v>268</v>
       </c>
       <c r="D6" s="21">
-        <f t="shared" ref="D6:D7" si="0">SUM(B6:C6)+D5</f>
+        <f t="shared" ref="D6:D9" si="0">SUM(B6:C6)+D5</f>
         <v>2993.7799999999947</v>
       </c>
       <c r="E6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A6)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A6)*(银行账!D3:D10054="招商")*(银行账!C3:C10054))</f>
         <v>-4178.1000000000004</v>
       </c>
       <c r="F6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A6)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A6)*(银行账!J3:J10054="招商")*(银行账!I3:I10054))</f>
         <v>2071</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" ref="G6:G7" si="1">SUM(E6:F6)+G5</f>
+        <f t="shared" ref="G6" si="1">SUM(E6:F6)+G5</f>
         <v>778.89000000000306</v>
       </c>
       <c r="H6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A6)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A6)*(银行账!D3:D10054=H1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="I6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A6)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A6)*(银行账!J3:J10054=H1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="J6" s="21">
-        <f t="shared" ref="J6:J7" si="2">SUM(H6:I6)+J5</f>
+        <f t="shared" ref="J6:J9" si="2">SUM(H6:I6)+J5</f>
         <v>497</v>
       </c>
       <c r="K6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A6)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A6)*(银行账!D3:D10054=K1)*(银行账!C3:C10054))</f>
         <v>-3811.13</v>
       </c>
       <c r="L6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A6)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A6)*(银行账!J3:J10054=K1)*(银行账!I3:I10054))</f>
         <v>3513.07</v>
       </c>
       <c r="M6" s="21">
-        <f t="shared" ref="M6:M7" si="3">SUM(K6:L6)+M5</f>
+        <f t="shared" ref="M6:M9" si="3">SUM(K6:L6)+M5</f>
         <v>225.52999999999997</v>
       </c>
       <c r="N6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A6)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A6)*(银行账!D3:D10054=N1)*(银行账!C3:C10054))</f>
         <v>-30</v>
       </c>
       <c r="O6" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A6)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A6)*(银行账!J3:J10054=N1)*(银行账!I3:I10054))</f>
         <v>3733.6800000000003</v>
       </c>
       <c r="P6" s="21">
-        <f t="shared" ref="P6:P7" si="4">SUM(N6:O6)+P5</f>
+        <f t="shared" ref="P6:P9" si="4">SUM(N6:O6)+P5</f>
         <v>4936.7700000000004</v>
       </c>
       <c r="Q6" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A6)*(现金账!C3:C10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10015)=A6)*(现金账!C3:C10015))</f>
         <v>-1222.6999999999998</v>
       </c>
       <c r="R6" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A6)*(现金账!H3:H10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10015)=A6)*(现金账!H3:H10015))</f>
         <v>950</v>
       </c>
       <c r="S6" s="21">
-        <f t="shared" ref="S6:S7" si="5">SUM(Q6:R6)+S5</f>
+        <f t="shared" ref="S6:S9" si="5">SUM(Q6:R6)+S5</f>
         <v>244.58999999999992</v>
       </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="38"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="36"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A7)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A7)*(银行账!D3:D10054="华夏")*(银行账!C3:C10054))</f>
         <v>-392.5</v>
       </c>
       <c r="C7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A7)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A7)*(银行账!J3:J10054="华夏")*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="D7" s="21">
@@ -7026,23 +7296,23 @@
         <v>2601.2799999999947</v>
       </c>
       <c r="E7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A7)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A7)*(银行账!D3:D10054="招商")*(银行账!C3:C10054))</f>
         <v>-1659.9</v>
       </c>
       <c r="F7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A7)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A7)*(银行账!J3:J10054="招商")*(银行账!I3:I10054))</f>
         <v>6108.17</v>
       </c>
       <c r="G7" s="21">
-        <f t="shared" si="1"/>
+        <f>SUM(E7:F7)+G6</f>
         <v>5227.1600000000035</v>
       </c>
       <c r="H7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A7)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A7)*(银行账!D3:D10054=H1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="I7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A7)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A7)*(银行账!J3:J10054=H1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="J7" s="21">
@@ -7050,11 +7320,11 @@
         <v>497</v>
       </c>
       <c r="K7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A7)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A7)*(银行账!D3:D10054=K1)*(银行账!C3:C10054))</f>
         <v>-1943.82</v>
       </c>
       <c r="L7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A7)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A7)*(银行账!J3:J10054=K1)*(银行账!I3:I10054))</f>
         <v>2065.77</v>
       </c>
       <c r="M7" s="21">
@@ -7062,11 +7332,11 @@
         <v>347.48</v>
       </c>
       <c r="N7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A7)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A7)*(银行账!D3:D10054=N1)*(银行账!C3:C10054))</f>
         <v>-5035</v>
       </c>
       <c r="O7" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A7)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A7)*(银行账!J3:J10054=N1)*(银行账!I3:I10054))</f>
         <v>1826.9299999999998</v>
       </c>
       <c r="P7" s="21">
@@ -7074,784 +7344,820 @@
         <v>1728.7000000000003</v>
       </c>
       <c r="Q7" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A7)*(现金账!C3:C10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10015)=A7)*(现金账!C3:C10015))</f>
         <v>-842.09999999999991</v>
       </c>
       <c r="R7" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A7)*(现金账!H3:H10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10015)=A7)*(现金账!H3:H10015))</f>
         <v>1846.81</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="5"/>
         <v>1249.3</v>
       </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="38"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="36"/>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A8)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A8)*(银行账!D3:D10054="华夏")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="C8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A8)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="21"/>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A8)*(银行账!J3:J10054="华夏")*(银行账!I3:I10054))</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
+        <v>2601.2799999999947</v>
+      </c>
       <c r="E8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A8)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
-        <v>-1345.8</v>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A8)*(银行账!D3:D10054="招商")*(银行账!C3:C10054))</f>
+        <v>-1338.8</v>
       </c>
       <c r="F8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A8)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="21"/>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A8)*(银行账!J3:J10054="招商")*(银行账!I3:I10054))</f>
+        <v>21.1</v>
+      </c>
+      <c r="G8" s="21">
+        <f>SUM(E8:F8)+G7</f>
+        <v>3909.4600000000037</v>
+      </c>
       <c r="H8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A8)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A8)*(银行账!D3:D10054=H1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="I8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A8)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="21"/>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A8)*(银行账!J3:J10054=H1)*(银行账!I3:I10054))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="2"/>
+        <v>497</v>
+      </c>
       <c r="K8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A8)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
-        <v>0</v>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A8)*(银行账!D3:D10054=K1)*(银行账!C3:C10054))</f>
+        <v>-1666.1100000000001</v>
       </c>
       <c r="L8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A8)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="21"/>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A8)*(银行账!J3:J10054=K1)*(银行账!I3:I10054))</f>
+        <v>1424.89</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="3"/>
+        <v>106.25999999999999</v>
+      </c>
       <c r="N8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A8)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
-        <v>0</v>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A8)*(银行账!D3:D10054=N1)*(银行账!C3:C10054))</f>
+        <v>-30</v>
       </c>
       <c r="O8" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A8)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="21"/>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A8)*(银行账!J3:J10054=N1)*(银行账!I3:I10054))</f>
+        <v>1657.37</v>
+      </c>
+      <c r="P8" s="21">
+        <f t="shared" si="4"/>
+        <v>3356.07</v>
+      </c>
       <c r="Q8" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A8)*(现金账!C3:C10014))</f>
-        <v>-317.10000000000002</v>
+        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10015)=A8)*(现金账!C3:C10015))</f>
+        <v>-324.10000000000002</v>
       </c>
       <c r="R8" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A8)*(现金账!H3:H10014))</f>
-        <v>60</v>
-      </c>
-      <c r="S8" s="21"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="38"/>
+        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10015)=A8)*(现金账!H3:H10015))</f>
+        <v>310.39999999999998</v>
+      </c>
+      <c r="S8" s="21">
+        <f t="shared" si="5"/>
+        <v>1235.5999999999999</v>
+      </c>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="36"/>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A9)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A9)*(银行账!D3:D10054="华夏")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="C9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A9)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="21"/>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A9)*(银行账!J3:J10054="华夏")*(银行账!I3:I10054))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" si="0"/>
+        <v>2601.2799999999947</v>
+      </c>
       <c r="E9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A9)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A9)*(银行账!D3:D10054="招商")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="F9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A9)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="21"/>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A9)*(银行账!J3:J10054="招商")*(银行账!I3:I10054))</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <f>SUM(E9:F9)+G8</f>
+        <v>3909.4600000000037</v>
+      </c>
       <c r="H9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A9)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A9)*(银行账!D3:D10054=H1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="I9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A9)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="21"/>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A9)*(银行账!J3:J10054=H1)*(银行账!I3:I10054))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="2"/>
+        <v>497</v>
+      </c>
       <c r="K9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A9)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A9)*(银行账!D3:D10054=K1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="L9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A9)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="21"/>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A9)*(银行账!J3:J10054=K1)*(银行账!I3:I10054))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="21">
+        <f t="shared" si="3"/>
+        <v>106.25999999999999</v>
+      </c>
       <c r="N9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A9)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A9)*(银行账!D3:D10054=N1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="O9" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A9)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="21"/>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A9)*(银行账!J3:J10054=N1)*(银行账!I3:I10054))</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="21">
+        <f t="shared" si="4"/>
+        <v>3356.07</v>
+      </c>
       <c r="Q9" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A9)*(现金账!C3:C10014))</f>
-        <v>0</v>
+        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10015)=A9)*(现金账!C3:C10015))</f>
+        <v>-7</v>
       </c>
       <c r="R9" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A9)*(现金账!H3:H10014))</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="38"/>
+        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10015)=A9)*(现金账!H3:H10015))</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="21">
+        <f t="shared" si="5"/>
+        <v>1228.5999999999999</v>
+      </c>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="36"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A10)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A10)*(银行账!D3:D10054="华夏")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="C10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A10)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A10)*(银行账!J3:J10054="华夏")*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A10)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A10)*(银行账!D3:D10054="招商")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="F10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A10)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A10)*(银行账!J3:J10054="招商")*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A10)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A10)*(银行账!D3:D10054=H1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="I10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A10)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A10)*(银行账!J3:J10054=H1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A10)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A10)*(银行账!D3:D10054=K1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="L10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A10)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A10)*(银行账!J3:J10054=K1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="M10" s="21"/>
       <c r="N10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A10)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A10)*(银行账!D3:D10054=N1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="O10" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A10)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A10)*(银行账!J3:J10054=N1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A10)*(现金账!C3:C10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10015)=A10)*(现金账!C3:C10015))</f>
         <v>0</v>
       </c>
       <c r="R10" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A10)*(现金账!H3:H10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10015)=A10)*(现金账!H3:H10015))</f>
         <v>0</v>
       </c>
       <c r="S10" s="21"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="38"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="36"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A11)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A11)*(银行账!D3:D10054="华夏")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="C11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A11)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A11)*(银行账!J3:J10054="华夏")*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A11)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A11)*(银行账!D3:D10054="招商")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="F11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A11)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A11)*(银行账!J3:J10054="招商")*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A11)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A11)*(银行账!D3:D10054=H1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="I11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A11)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A11)*(银行账!J3:J10054=H1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A11)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A11)*(银行账!D3:D10054=K1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="L11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A11)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A11)*(银行账!J3:J10054=K1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A11)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A11)*(银行账!D3:D10054=N1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="O11" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A11)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A11)*(银行账!J3:J10054=N1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A11)*(现金账!C3:C10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10015)=A11)*(现金账!C3:C10015))</f>
         <v>0</v>
       </c>
       <c r="R11" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A11)*(现金账!H3:H10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10015)=A11)*(现金账!H3:H10015))</f>
         <v>0</v>
       </c>
       <c r="S11" s="21"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="38"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="36"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A12)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A12)*(银行账!D3:D10054="华夏")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="C12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A12)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A12)*(银行账!J3:J10054="华夏")*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A12)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A12)*(银行账!D3:D10054="招商")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="F12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A12)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A12)*(银行账!J3:J10054="招商")*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A12)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A12)*(银行账!D3:D10054=H1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="I12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A12)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A12)*(银行账!J3:J10054=H1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A12)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A12)*(银行账!D3:D10054=K1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="L12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A12)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A12)*(银行账!J3:J10054=K1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="M12" s="21"/>
       <c r="N12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A12)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A12)*(银行账!D3:D10054=N1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="O12" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A12)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A12)*(银行账!J3:J10054=N1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A12)*(现金账!C3:C10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10015)=A12)*(现金账!C3:C10015))</f>
         <v>0</v>
       </c>
       <c r="R12" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A12)*(现金账!H3:H10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10015)=A12)*(现金账!H3:H10015))</f>
         <v>0</v>
       </c>
       <c r="S12" s="21"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="38"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="36"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A13)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A13)*(银行账!D3:D10054="华夏")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="C13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A13)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A13)*(银行账!J3:J10054="华夏")*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A13)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A13)*(银行账!D3:D10054="招商")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="F13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A13)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A13)*(银行账!J3:J10054="招商")*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A13)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A13)*(银行账!D3:D10054=H1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="I13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A13)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A13)*(银行账!J3:J10054=H1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A13)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A13)*(银行账!D3:D10054=K1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="L13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A13)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A13)*(银行账!J3:J10054=K1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="M13" s="21"/>
       <c r="N13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A13)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A13)*(银行账!D3:D10054=N1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="O13" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A13)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A13)*(银行账!J3:J10054=N1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A13)*(现金账!C3:C10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10015)=A13)*(现金账!C3:C10015))</f>
         <v>0</v>
       </c>
       <c r="R13" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A13)*(现金账!H3:H10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10015)=A13)*(现金账!H3:H10015))</f>
         <v>0</v>
       </c>
       <c r="S13" s="21"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="38"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="36"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="14">
         <v>12</v>
       </c>
       <c r="B14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A14)*(银行账!D3:D10049="华夏")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A14)*(银行账!D3:D10054="华夏")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="C14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A14)*(银行账!J3:J10049="华夏")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A14)*(银行账!J3:J10054="华夏")*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A14)*(银行账!D3:D10049="招商")*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A14)*(银行账!D3:D10054="招商")*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="F14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A14)*(银行账!J3:J10049="招商")*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A14)*(银行账!J3:J10054="招商")*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A14)*(银行账!D3:D10049=H1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A14)*(银行账!D3:D10054=H1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="I14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A14)*(银行账!J3:J10049=H1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A14)*(银行账!J3:J10054=H1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A14)*(银行账!D3:D10049=K1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A14)*(银行账!D3:D10054=K1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="L14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A14)*(银行账!J3:J10049=K1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A14)*(银行账!J3:J10054=K1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10049)=A14)*(银行账!D3:D10049=N1)*(银行账!C3:C10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$A$3:$A$10054)=A14)*(银行账!D3:D10054=N1)*(银行账!C3:C10054))</f>
         <v>0</v>
       </c>
       <c r="O14" s="21">
-        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10049)=A14)*(银行账!J3:J10049=N1)*(银行账!I3:I10049))</f>
+        <f>SUMPRODUCT((MONTH(银行账!$G$3:$G$10054)=A14)*(银行账!J3:J10054=N1)*(银行账!I3:I10054))</f>
         <v>0</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10014)=A14)*(现金账!C3:C10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$A$3:$A$10015)=A14)*(现金账!C3:C10015))</f>
         <v>0</v>
       </c>
       <c r="R14" s="21">
-        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10014)=A14)*(现金账!H3:H10014))</f>
+        <f>SUMPRODUCT((MONTH(现金账!$F$3:$F$10015)=A14)*(现金账!H3:H10015))</f>
         <v>0</v>
       </c>
       <c r="S14" s="21"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="38"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="36"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="24"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="38"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="36"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="24"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="38"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="36"/>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="24"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="38"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="36"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="24"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="38"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="24"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="24"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="36"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="24"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="38"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="36"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="24"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="38"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="24"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="24"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="38"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="36"/>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="24"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="38"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="36"/>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="24"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="36"/>
     </row>
     <row r="31" spans="1:24">
       <c r="H31" s="12"/>
